--- a/Venue Series Input File.xlsx
+++ b/Venue Series Input File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\Hoshino Math Services\Timetabling Consulting\Venue Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D46A54-2289-4769-9FB5-9F08AB4F12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD05141-64C3-41B4-9FBE-10CAF217C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{F9563A12-F504-4896-9508-11B1A9375A59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{F9563A12-F504-4896-9508-11B1A9375A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendors" sheetId="10" r:id="rId1"/>
@@ -1074,18 +1074,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1102,7 +1096,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,9 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,9 +1351,9 @@
   </sheetPr>
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -2040,9 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238079B5-EC7A-477D-83C8-E8B4911CA920}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3234,9 +3223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C82EE-2E16-42F8-9B08-9767E42F6381}">
   <dimension ref="A1:CC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3497,7 +3484,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -3742,8 +3729,8 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3987,7 +3974,7 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -4965,43 +4952,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -5010,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5022,46 +5009,46 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
         <v>0</v>
@@ -5070,25 +5057,25 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
@@ -5100,37 +5087,37 @@
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF8" s="1">
         <v>0</v>
@@ -5139,40 +5126,40 @@
         <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ8" s="1">
         <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM8" s="1">
         <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO8" s="1">
         <v>0</v>
       </c>
       <c r="BP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR8" s="1">
         <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -5181,28 +5168,28 @@
         <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8" s="1">
         <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
@@ -9646,9 +9633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB251989-5765-450C-91F4-B154E082A9EC}">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9759,8 +9744,8 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -9839,8 +9824,8 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="9">
-        <v>0</v>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -9919,7 +9904,7 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -9999,8 +9984,8 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
-        <v>0</v>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -10079,7 +10064,7 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -10159,7 +10144,7 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -10239,8 +10224,8 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="9">
-        <v>0</v>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -10319,8 +10304,8 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -10399,7 +10384,7 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -10479,7 +10464,7 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -10559,8 +10544,8 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="9">
-        <v>0</v>
+      <c r="H12" s="1">
+        <v>2</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -10639,7 +10624,7 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -10719,8 +10704,8 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -10799,8 +10784,8 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="9">
-        <v>0</v>
+      <c r="H15" s="1">
+        <v>2</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -10879,7 +10864,7 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
@@ -10959,7 +10944,7 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
@@ -11039,8 +11024,8 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="H18" s="1">
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -11119,8 +11104,8 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
-        <v>0</v>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -11199,8 +11184,8 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="9">
-        <v>0</v>
+      <c r="H20" s="1">
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -11279,7 +11264,7 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -11359,8 +11344,8 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -11439,8 +11424,8 @@
       <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="9">
-        <v>0</v>
+      <c r="H23" s="1">
+        <v>2</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -11519,8 +11504,8 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="H24" s="1">
+        <v>2</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -11582,7 +11567,7 @@
         <v>78</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -11591,16 +11576,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="9">
-        <v>0</v>
+      <c r="H25" s="1">
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -11615,34 +11600,34 @@
         <v>2</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" s="1">
         <v>2</v>
@@ -11679,8 +11664,8 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
+      <c r="H26" s="1">
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -11759,8 +11744,8 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
+      <c r="H27" s="1">
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -11839,8 +11824,8 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
-        <v>0</v>
+      <c r="H28" s="1">
+        <v>2</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -11919,8 +11904,8 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
+      <c r="H29" s="1">
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -11999,8 +11984,8 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
-        <v>0</v>
+      <c r="H30" s="1">
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
@@ -12079,8 +12064,8 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
-        <v>0</v>
+      <c r="H31" s="1">
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
@@ -12159,8 +12144,8 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="9">
-        <v>0</v>
+      <c r="H32" s="1">
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -12239,8 +12224,8 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
+      <c r="H33" s="1">
+        <v>2</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -12319,7 +12304,7 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
@@ -12399,7 +12384,7 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -12479,8 +12464,8 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="9">
-        <v>0</v>
+      <c r="H36" s="1">
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>2</v>
@@ -12559,8 +12544,8 @@
       <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="H37" s="1">
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -12639,7 +12624,7 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
@@ -12719,7 +12704,7 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1">
@@ -12799,8 +12784,8 @@
       <c r="G40" s="1">
         <v>2</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
+      <c r="H40" s="1">
+        <v>1</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -12879,7 +12864,7 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
@@ -12959,8 +12944,8 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
+      <c r="H42" s="1">
+        <v>1</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -13039,7 +13024,7 @@
       <c r="G43" s="1">
         <v>1</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
@@ -13119,8 +13104,8 @@
       <c r="G44" s="1">
         <v>2</v>
       </c>
-      <c r="H44" s="9">
-        <v>0</v>
+      <c r="H44" s="1">
+        <v>2</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -13199,8 +13184,8 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="9">
-        <v>0</v>
+      <c r="H45" s="1">
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <v>2</v>
@@ -13279,8 +13264,8 @@
       <c r="G46" s="1">
         <v>2</v>
       </c>
-      <c r="H46" s="9">
-        <v>0</v>
+      <c r="H46" s="1">
+        <v>1</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
@@ -13359,8 +13344,8 @@
       <c r="G47" s="1">
         <v>2</v>
       </c>
-      <c r="H47" s="9">
-        <v>0</v>
+      <c r="H47" s="1">
+        <v>1</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -13439,8 +13424,8 @@
       <c r="G48" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="9">
-        <v>0</v>
+      <c r="H48" s="1">
+        <v>2</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -13519,8 +13504,8 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
+      <c r="H49" s="1">
+        <v>1</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -13599,8 +13584,8 @@
       <c r="G50" s="1">
         <v>2</v>
       </c>
-      <c r="H50" s="9">
-        <v>0</v>
+      <c r="H50" s="1">
+        <v>1</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -13679,8 +13664,8 @@
       <c r="G51" s="1">
         <v>2</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
+      <c r="H51" s="1">
+        <v>2</v>
       </c>
       <c r="I51" s="1">
         <v>2</v>
@@ -13759,8 +13744,8 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="9">
-        <v>0</v>
+      <c r="H52" s="1">
+        <v>2</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -13839,8 +13824,8 @@
       <c r="G53" s="1">
         <v>2</v>
       </c>
-      <c r="H53" s="9">
-        <v>0</v>
+      <c r="H53" s="1">
+        <v>2</v>
       </c>
       <c r="I53" s="1">
         <v>2</v>
@@ -13919,7 +13904,7 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54" s="1">
@@ -13999,7 +13984,7 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55" s="1">
@@ -14079,7 +14064,7 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56" s="1">
@@ -14159,8 +14144,8 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
+      <c r="H57" s="1">
+        <v>2</v>
       </c>
       <c r="I57" s="1">
         <v>2</v>
@@ -14239,8 +14224,8 @@
       <c r="G58" s="1">
         <v>1</v>
       </c>
-      <c r="H58" s="9">
-        <v>0</v>
+      <c r="H58" s="1">
+        <v>2</v>
       </c>
       <c r="I58" s="1">
         <v>2</v>
@@ -14319,8 +14304,8 @@
       <c r="G59" s="1">
         <v>2</v>
       </c>
-      <c r="H59" s="9">
-        <v>0</v>
+      <c r="H59" s="1">
+        <v>1</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -14399,8 +14384,8 @@
       <c r="G60" s="1">
         <v>1</v>
       </c>
-      <c r="H60" s="9">
-        <v>0</v>
+      <c r="H60" s="1">
+        <v>1</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -14479,7 +14464,7 @@
       <c r="G61" s="1">
         <v>2</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="1">
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -14559,7 +14544,7 @@
       <c r="G62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62" s="1">
@@ -14639,8 +14624,8 @@
       <c r="G63" s="1">
         <v>1</v>
       </c>
-      <c r="H63" s="9">
-        <v>0</v>
+      <c r="H63" s="1">
+        <v>2</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -14719,8 +14704,8 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="9">
-        <v>0</v>
+      <c r="H64" s="1">
+        <v>1</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
@@ -14799,7 +14784,7 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="1">
         <v>0</v>
       </c>
       <c r="I65" s="1">
@@ -14879,8 +14864,8 @@
       <c r="G66" s="1">
         <v>1</v>
       </c>
-      <c r="H66" s="9">
-        <v>0</v>
+      <c r="H66" s="1">
+        <v>2</v>
       </c>
       <c r="I66" s="1">
         <v>2</v>
@@ -14959,8 +14944,8 @@
       <c r="G67" s="1">
         <v>1</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="H67" s="1">
+        <v>1</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
@@ -15039,8 +15024,8 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="9">
-        <v>0</v>
+      <c r="H68" s="1">
+        <v>2</v>
       </c>
       <c r="I68" s="1">
         <v>2</v>
@@ -15119,7 +15104,7 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="1">
         <v>0</v>
       </c>
       <c r="I69" s="1">
@@ -15199,8 +15184,8 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-      <c r="H70" s="9">
-        <v>0</v>
+      <c r="H70" s="1">
+        <v>1</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -15279,7 +15264,7 @@
       <c r="G71" s="1">
         <v>1</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="1">
         <v>0</v>
       </c>
       <c r="I71" s="1">
@@ -15359,8 +15344,8 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="9">
-        <v>0</v>
+      <c r="H72" s="1">
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -15439,7 +15424,7 @@
       <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="1">
         <v>0</v>
       </c>
       <c r="I73" s="1">
@@ -15519,8 +15504,8 @@
       <c r="G74" s="1">
         <v>0</v>
       </c>
-      <c r="H74" s="9">
-        <v>0</v>
+      <c r="H74" s="1">
+        <v>2</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -15599,8 +15584,8 @@
       <c r="G75" s="1">
         <v>2</v>
       </c>
-      <c r="H75" s="9">
-        <v>0</v>
+      <c r="H75" s="1">
+        <v>2</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -15679,7 +15664,7 @@
       <c r="G76" s="1">
         <v>0</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76" s="1">
         <v>0</v>
       </c>
       <c r="I76" s="1">
@@ -15759,8 +15744,8 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
+      <c r="H77" s="1">
+        <v>2</v>
       </c>
       <c r="I77" s="1">
         <v>0</v>
@@ -15839,8 +15824,8 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="9">
-        <v>0</v>
+      <c r="H78" s="1">
+        <v>2</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
@@ -15919,8 +15904,8 @@
       <c r="G79" s="1">
         <v>1</v>
       </c>
-      <c r="H79" s="9">
-        <v>0</v>
+      <c r="H79" s="1">
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
@@ -15999,7 +15984,7 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80" s="1">
         <v>0</v>
       </c>
       <c r="I80" s="1">
@@ -16079,8 +16064,8 @@
       <c r="G81" s="1">
         <v>1</v>
       </c>
-      <c r="H81" s="9">
-        <v>0</v>
+      <c r="H81" s="1">
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
@@ -16147,9 +16132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510BC7D6-70C2-411B-B8C5-407D25AEBBAC}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
